--- a/CAMEO.xlsx
+++ b/CAMEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananyasamuel/Desktop/School/UCL/3/Diss/Dissertation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372A4586-EE75-464B-86C1-615F89444CB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB22DFB-D5E6-AA4C-ACA0-36997F67CB3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{924E197E-CC82-8240-AAA0-181BB790C10D}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28820" windowHeight="16940" xr2:uid="{924E197E-CC82-8240-AAA0-181BB790C10D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -976,12 +976,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -996,8 +1002,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,11 +1321,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A174983E-146A-DD4B-98E8-45D4CBEF17FC}">
   <dimension ref="A1:B311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3576,27 +3587,27 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="283" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
         <v>180</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="284" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
         <v>181</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="285" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
         <v>182</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3608,51 +3619,51 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="287" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
         <v>1822</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="288" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
         <v>1823</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="289" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
         <v>183</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="290" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
         <v>1831</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291">
+    <row r="291" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
         <v>1832</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="292" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
         <v>1833</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>292</v>
       </c>
     </row>
